--- a/biology/Zoologie/Coradion/Coradion.xlsx
+++ b/biology/Zoologie/Coradion/Coradion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coradion est un genre de poissons marins de la famille des Chaetodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Coradion sont des poissons de récifs qui se rencontrent dans le bassin Indo-Pacifique[1]. Selon les espèces, ces poissons sont présents entre 3 et 128 m de profondeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Coradion sont des poissons de récifs qui se rencontrent dans le bassin Indo-Pacifique. Selon les espèces, ces poissons sont présents entre 3 et 128 m de profondeur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces poissons mesurent une quinzaine de centimètres de longueur totale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces poissons mesurent une quinzaine de centimètres de longueur totale.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (18 avril 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (18 avril 2024) :
 Coradion altivelis McCulloch, 1916
 Coradion calendula Matsunuma, Motomura &amp; Seah, 2023
 Coradion chrysozonus (Cuvier, 1831)
@@ -607,11 +625,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Coradion Kaup, 1860[2],[3].
-Publication originale
-(de) J. Kaup, « Ueber die Chaetodontidae », Archiv für Naturgeschichte, Berlin, vol. 26, no 1,‎ 1860, p. 133-156 (ISSN 0365-6136, lire en ligne, consulté le 18 avril 2024).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Coradion Kaup, 1860,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coradion</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coradion</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(de) J. Kaup, « Ueber die Chaetodontidae », Archiv für Naturgeschichte, Berlin, vol. 26, no 1,‎ 1860, p. 133-156 (ISSN 0365-6136, lire en ligne, consulté le 18 avril 2024).</t>
         </is>
       </c>
     </row>
